--- a/toolbox_data/parsers/pp_sharkweb_parser.xlsx
+++ b/toolbox_data/parsers/pp_sharkweb_parser.xlsx
@@ -189,9 +189,6 @@
     <t>Excel sheet name</t>
   </si>
   <si>
-    <t>PP Sharkweb download</t>
-  </si>
-  <si>
     <t>used_station_name</t>
   </si>
   <si>
@@ -358,6 +355,9 @@
   </si>
   <si>
     <t>$Text('taxon_class')</t>
+  </si>
+  <si>
+    <t>PP Sharkweb download en</t>
   </si>
 </sst>
 </file>
@@ -1001,7 +1001,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:XFD43"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1037,7 +1037,7 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="H1" t="s">
         <v>49</v>
@@ -1065,7 +1065,7 @@
         <v>40</v>
       </c>
       <c r="G3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1076,7 +1076,7 @@
         <v>41</v>
       </c>
       <c r="G4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1128,7 +1128,7 @@
         <v>42</v>
       </c>
       <c r="G10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H10" t="s">
         <v>44</v>
@@ -1145,13 +1145,13 @@
         <v>43</v>
       </c>
       <c r="G11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H11" t="s">
         <v>22</v>
       </c>
       <c r="I11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1162,18 +1162,18 @@
         <v>50</v>
       </c>
       <c r="G12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H12" t="s">
         <v>23</v>
       </c>
       <c r="I12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="I13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1181,16 +1181,16 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H14" t="s">
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1198,16 +1198,16 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H15" t="s">
         <v>25</v>
       </c>
       <c r="I15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1215,16 +1215,16 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1232,16 +1232,16 @@
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1252,18 +1252,18 @@
         <v>8</v>
       </c>
       <c r="G18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H18" t="s">
         <v>24</v>
       </c>
       <c r="I18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="I19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1274,13 +1274,13 @@
         <v>10</v>
       </c>
       <c r="G20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1291,13 +1291,13 @@
         <v>11</v>
       </c>
       <c r="G21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H21" t="s">
         <v>26</v>
       </c>
       <c r="I21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1308,13 +1308,13 @@
         <v>12</v>
       </c>
       <c r="G22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H22" t="s">
         <v>27</v>
       </c>
       <c r="I22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1325,7 +1325,7 @@
         <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H23" t="s">
         <v>28</v>
@@ -1336,7 +1336,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="I24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1347,13 +1347,13 @@
         <v>15</v>
       </c>
       <c r="G25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H25" t="s">
         <v>29</v>
       </c>
       <c r="I25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1361,7 +1361,7 @@
         <v>14</v>
       </c>
       <c r="I26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1372,13 +1372,13 @@
         <v>51</v>
       </c>
       <c r="G27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H27" t="s">
         <v>32</v>
       </c>
       <c r="I27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1395,7 +1395,7 @@
         <v>31</v>
       </c>
       <c r="I28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1406,13 +1406,13 @@
         <v>16</v>
       </c>
       <c r="G29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H29" t="s">
         <v>30</v>
       </c>
       <c r="I29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1423,13 +1423,13 @@
         <v>48</v>
       </c>
       <c r="G30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1440,13 +1440,13 @@
         <v>18</v>
       </c>
       <c r="G31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H31" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1454,16 +1454,16 @@
         <v>14</v>
       </c>
       <c r="B32" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G32" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H32" t="s">
         <v>46</v>
       </c>
       <c r="I32" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1471,16 +1471,16 @@
         <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H33" t="s">
         <v>45</v>
       </c>
       <c r="I33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1491,13 +1491,13 @@
         <v>19</v>
       </c>
       <c r="G35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H35" t="s">
         <v>33</v>
       </c>
       <c r="I35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1508,13 +1508,13 @@
         <v>20</v>
       </c>
       <c r="G36" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H36" t="s">
         <v>34</v>
       </c>
       <c r="I36" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1525,13 +1525,13 @@
         <v>21</v>
       </c>
       <c r="G37" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H37" t="s">
         <v>35</v>
       </c>
       <c r="I37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/toolbox_data/parsers/pp_sharkweb_parser.xlsx
+++ b/toolbox_data/parsers/pp_sharkweb_parser.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21721"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22221"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7320" yWindow="1280" windowWidth="27520" windowHeight="21440" tabRatio="500"/>
+    <workbookView xWindow="1640" yWindow="740" windowWidth="33140" windowHeight="21400" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="pp_import_matrix.txt" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="98">
   <si>
     <t>Node level</t>
   </si>
@@ -189,69 +189,6 @@
     <t>Excel sheet name</t>
   </si>
   <si>
-    <t>used_station_name</t>
-  </si>
-  <si>
-    <t>visit_long_dm</t>
-  </si>
-  <si>
-    <t>*Sampling event identifier</t>
-  </si>
-  <si>
-    <t>*Sample identifier</t>
-  </si>
-  <si>
-    <t>*Sampling date (start)</t>
-  </si>
-  <si>
-    <t>*Sampling time (start)</t>
-  </si>
-  <si>
-    <t>Sample minimum depth</t>
-  </si>
-  <si>
-    <t>Sample maximum depth</t>
-  </si>
-  <si>
-    <t>used_taxon_name</t>
-  </si>
-  <si>
-    <t>Species flag</t>
-  </si>
-  <si>
-    <t>Qualifier flag</t>
-  </si>
-  <si>
-    <t>*taxon_kingdom</t>
-  </si>
-  <si>
-    <t>*taxon_order</t>
-  </si>
-  <si>
-    <t>*taxon_family</t>
-  </si>
-  <si>
-    <t>*taxon_hierachy</t>
-  </si>
-  <si>
-    <t>*Sampler area</t>
-  </si>
-  <si>
-    <t>*Value calculated by data centre</t>
-  </si>
-  <si>
-    <t>Reported taxon name</t>
-  </si>
-  <si>
-    <t>*Reported parameter</t>
-  </si>
-  <si>
-    <t>*Reference source</t>
-  </si>
-  <si>
-    <t>*Reported station name</t>
-  </si>
-  <si>
     <t>$Text('Year')</t>
   </si>
   <si>
@@ -306,9 +243,6 @@
     <t>PEG Trophy</t>
   </si>
   <si>
-    <t>$Text('Trophy')</t>
-  </si>
-  <si>
     <t>$Species($Text('used_taxon_name'), key=u'Class')</t>
   </si>
   <si>
@@ -354,10 +288,31 @@
     <t>SMP_ID</t>
   </si>
   <si>
-    <t>$Text('taxon_class')</t>
-  </si>
-  <si>
     <t>PP Sharkweb download en</t>
+  </si>
+  <si>
+    <t>$Text('Class') + $Text('taxon_class')</t>
+  </si>
+  <si>
+    <t>FUNCTION Variable</t>
+  </si>
+  <si>
+    <t>$Text('Trophy') if $Text('Trophy') else u'NS'</t>
+  </si>
+  <si>
+    <t>if $Text('Parameter') == u'Abundance': $CopyVariable(p='Biovolume conc (calculated)', v=$Float('Value') * float($Sizeclass($Text('used_taxon_name'), $Text('Size class'), key=u'Calculated volume, µm3')), u=u'µm3/l', q=u'')</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>NS is used if field is empty.</t>
+  </si>
+  <si>
+    <t>Not translated.</t>
+  </si>
+  <si>
+    <t>Sometimes translated. Remove 'taxon_class' later.</t>
   </si>
 </sst>
 </file>
@@ -406,8 +361,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="129">
+  <cellStyleXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -540,7 +509,7 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="129">
+  <cellStyles count="143">
     <cellStyle name="Följd hyperlänk" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Följd hyperlänk" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Följd hyperlänk" xfId="6" builtinId="9" hidden="1"/>
@@ -605,6 +574,13 @@
     <cellStyle name="Följd hyperlänk" xfId="124" builtinId="9" hidden="1"/>
     <cellStyle name="Följd hyperlänk" xfId="126" builtinId="9" hidden="1"/>
     <cellStyle name="Följd hyperlänk" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="142" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlänk" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlänk" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlänk" xfId="5" builtinId="8" hidden="1"/>
@@ -669,6 +645,13 @@
     <cellStyle name="Hyperlänk" xfId="123" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlänk" xfId="125" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlänk" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="141" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -998,26 +981,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="18.1640625" customWidth="1"/>
-    <col min="2" max="2" width="26.1640625" customWidth="1"/>
+    <col min="2" max="2" width="55.83203125" customWidth="1"/>
     <col min="3" max="3" width="4.6640625" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="12" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="13" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="6" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="63.5" customWidth="1"/>
-    <col min="8" max="8" width="34" customWidth="1"/>
-    <col min="9" max="9" width="30" customWidth="1"/>
+    <col min="8" max="8" width="19.1640625" customWidth="1"/>
+    <col min="9" max="9" width="34" customWidth="1"/>
+    <col min="10" max="10" width="48.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1037,13 +1021,16 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>112</v>
-      </c>
-      <c r="H1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1053,11 +1040,11 @@
       <c r="G2" t="s">
         <v>38</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1065,10 +1052,10 @@
         <v>40</v>
       </c>
       <c r="G3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1076,10 +1063,10 @@
         <v>41</v>
       </c>
       <c r="G4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1090,7 +1077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1101,7 +1088,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1112,7 +1099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1120,7 +1107,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1128,16 +1115,13 @@
         <v>42</v>
       </c>
       <c r="G10" t="s">
-        <v>77</v>
-      </c>
-      <c r="H10" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10" t="s">
         <v>44</v>
       </c>
-      <c r="I10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1145,16 +1129,13 @@
         <v>43</v>
       </c>
       <c r="G11" t="s">
-        <v>78</v>
-      </c>
-      <c r="H11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I11" t="s">
         <v>22</v>
       </c>
-      <c r="I11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1162,89 +1143,84 @@
         <v>50</v>
       </c>
       <c r="G12" t="s">
-        <v>80</v>
-      </c>
-      <c r="H12" t="s">
+        <v>59</v>
+      </c>
+      <c r="I12" t="s">
         <v>23</v>
       </c>
-      <c r="I12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="I13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="J12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="G14" t="s">
-        <v>84</v>
-      </c>
-      <c r="H14" t="s">
+        <v>63</v>
+      </c>
+      <c r="I14" t="s">
         <v>47</v>
       </c>
-      <c r="I14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="G15" t="s">
-        <v>86</v>
-      </c>
-      <c r="H15" t="s">
+        <v>65</v>
+      </c>
+      <c r="I15" t="s">
         <v>25</v>
       </c>
-      <c r="I15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="J15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="G16" t="s">
-        <v>109</v>
-      </c>
-      <c r="H16" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="I16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>84</v>
+      </c>
+      <c r="J16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="G17" t="s">
+        <v>64</v>
+      </c>
+      <c r="I17" t="s">
         <v>85</v>
       </c>
-      <c r="H17" t="s">
-        <v>107</v>
-      </c>
-      <c r="I17" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -1252,21 +1228,13 @@
         <v>8</v>
       </c>
       <c r="G18" t="s">
-        <v>81</v>
-      </c>
-      <c r="H18" t="s">
+        <v>60</v>
+      </c>
+      <c r="I18" t="s">
         <v>24</v>
       </c>
-      <c r="I18" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="I19" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -1274,16 +1242,13 @@
         <v>10</v>
       </c>
       <c r="G20" t="s">
-        <v>100</v>
-      </c>
-      <c r="H20" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="I20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -1291,16 +1256,13 @@
         <v>11</v>
       </c>
       <c r="G21" t="s">
-        <v>82</v>
-      </c>
-      <c r="H21" t="s">
+        <v>61</v>
+      </c>
+      <c r="I21" t="s">
         <v>26</v>
       </c>
-      <c r="I21" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -1308,16 +1270,13 @@
         <v>12</v>
       </c>
       <c r="G22" t="s">
-        <v>83</v>
-      </c>
-      <c r="H22" t="s">
+        <v>62</v>
+      </c>
+      <c r="I22" t="s">
         <v>27</v>
       </c>
-      <c r="I22" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -1325,21 +1284,13 @@
         <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>87</v>
-      </c>
-      <c r="H23" t="s">
+        <v>66</v>
+      </c>
+      <c r="I23" t="s">
         <v>28</v>
       </c>
-      <c r="I23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="I24" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -1347,191 +1298,176 @@
         <v>15</v>
       </c>
       <c r="G25" t="s">
-        <v>88</v>
-      </c>
-      <c r="H25" t="s">
+        <v>67</v>
+      </c>
+      <c r="I25" t="s">
         <v>29</v>
       </c>
-      <c r="I25" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
         <v>14</v>
       </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+      <c r="G26" t="s">
+        <v>69</v>
+      </c>
       <c r="I26" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J26" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" t="s">
         <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="G27" t="s">
-        <v>90</v>
-      </c>
-      <c r="H27" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I27" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" t="s">
         <v>14</v>
       </c>
       <c r="B28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G28" t="s">
-        <v>36</v>
-      </c>
-      <c r="H28" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="I28" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" t="s">
         <v>14</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="G29" t="s">
-        <v>89</v>
-      </c>
-      <c r="H29" t="s">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="I29" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>76</v>
+      </c>
+      <c r="J29" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" t="s">
         <v>14</v>
       </c>
       <c r="B30" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="G30" t="s">
-        <v>111</v>
-      </c>
-      <c r="H30" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I30" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>86</v>
+      </c>
+      <c r="J30" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" t="s">
         <v>14</v>
       </c>
       <c r="B31" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="G31" t="s">
-        <v>95</v>
-      </c>
-      <c r="H31" t="s">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="I31" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="J31" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" t="s">
         <v>14</v>
       </c>
       <c r="B32" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="G32" t="s">
+        <v>75</v>
+      </c>
+      <c r="I32" t="s">
+        <v>45</v>
+      </c>
+      <c r="J32" t="s">
         <v>96</v>
       </c>
-      <c r="H32" t="s">
-        <v>46</v>
-      </c>
-      <c r="I32" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" t="s">
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" t="s">
         <v>14</v>
       </c>
-      <c r="B33" t="s">
-        <v>94</v>
-      </c>
-      <c r="G33" t="s">
-        <v>97</v>
-      </c>
-      <c r="H33" t="s">
-        <v>45</v>
-      </c>
-      <c r="I33" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+      <c r="B34" t="s">
+        <v>19</v>
+      </c>
+      <c r="G34" t="s">
+        <v>71</v>
+      </c>
+      <c r="I34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" t="s">
         <v>14</v>
       </c>
       <c r="B35" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G35" t="s">
-        <v>92</v>
-      </c>
-      <c r="H35" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="I35" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" t="s">
         <v>14</v>
       </c>
       <c r="B36" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G36" t="s">
+        <v>72</v>
+      </c>
+      <c r="I36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" t="s">
         <v>91</v>
       </c>
-      <c r="H36" t="s">
-        <v>34</v>
-      </c>
-      <c r="I36" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" t="s">
-        <v>14</v>
-      </c>
-      <c r="B37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G37" t="s">
+      <c r="G38" t="s">
         <v>93</v>
       </c>
-      <c r="H37" t="s">
-        <v>35</v>
-      </c>
-      <c r="I37" t="s">
-        <v>74</v>
+      <c r="J38" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/toolbox_data/parsers/pp_sharkweb_parser.xlsx
+++ b/toolbox_data/parsers/pp_sharkweb_parser.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22221"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1640" yWindow="740" windowWidth="33140" windowHeight="21400" tabRatio="500"/>
+    <workbookView xWindow="1660" yWindow="320" windowWidth="33780" windowHeight="22200" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="pp_import_matrix.txt" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="108">
   <si>
     <t>Node level</t>
   </si>
@@ -300,9 +300,6 @@
     <t>$Text('Trophy') if $Text('Trophy') else u'NS'</t>
   </si>
   <si>
-    <t>if $Text('Parameter') == u'Abundance': $CopyVariable(p='Biovolume conc (calculated)', v=$Float('Value') * float($Sizeclass($Text('used_taxon_name'), $Text('Size class'), key=u'Calculated volume, µm3')), u=u'µm3/l', q=u'')</t>
-  </si>
-  <si>
     <t>Comments</t>
   </si>
   <si>
@@ -313,6 +310,39 @@
   </si>
   <si>
     <t>Sometimes translated. Remove 'taxon_class' later.</t>
+  </si>
+  <si>
+    <t>Reported cell volume</t>
+  </si>
+  <si>
+    <t>REP_CELL_VOLUME</t>
+  </si>
+  <si>
+    <t>C per cell (Diatoms)</t>
+  </si>
+  <si>
+    <t>C_PER_CELL_DIATOMS</t>
+  </si>
+  <si>
+    <t>C per cell (other)</t>
+  </si>
+  <si>
+    <t>C_PER_CELL_OTHER</t>
+  </si>
+  <si>
+    <t>if ($Text('Parameter') == u'Abundance') and $Text(u'Volume per cell (um3)'): $CopyVariable(p='Biovolume conc (calculated)', v=$Float('Value') * float($Text(u'Volume per cell (um3)')), u=u'µm3/l', q=u'')</t>
+  </si>
+  <si>
+    <t>$Text('Volume per cell (um3)')</t>
+  </si>
+  <si>
+    <t>float($Text(u'Volume per cell (um3)')) ** 0.811 * 0.288 if $Text(u'Volume per cell (um3)') and ($Text('Class') + $Text('taxon_class')) in [u'Bacillariophyceae', u'Coscinodiscophyceae'] else u''</t>
+  </si>
+  <si>
+    <t>float($Text(u'Volume per cell (um3)')) ** 0.939 * 0.216 if $Text(u'Volume per cell (um3)') and ($Text('Class') + $Text('taxon_class')) not in [u'Bacillariophyceae', u'Coscinodiscophyceae'] else u''</t>
+  </si>
+  <si>
+    <t>if $Text(u'Volume per cell (um3)') and ($Text('Parameter') == u'Abundance'): $CopyVariable(p='Carbon per litre (calculated)', v=$Float('Value') * float($Text(u'Volume per cell (um3)')) ** 0.811 * 0.288 if ($Text('Class') + $Text('taxon_class')) in [u'Bacillariophyceae', u'Coscinodiscophyceae'] else $Float('Value') * float($Text(u'Volume per cell (um3)')) ** 0.939 * 0.216 , u=u'pgC/l', q=u'')</t>
   </si>
 </sst>
 </file>
@@ -361,8 +391,36 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="143">
+  <cellStyleXfs count="171">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -509,7 +567,7 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="143">
+  <cellStyles count="171">
     <cellStyle name="Följd hyperlänk" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Följd hyperlänk" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Följd hyperlänk" xfId="6" builtinId="9" hidden="1"/>
@@ -581,6 +639,20 @@
     <cellStyle name="Följd hyperlänk" xfId="138" builtinId="9" hidden="1"/>
     <cellStyle name="Följd hyperlänk" xfId="140" builtinId="9" hidden="1"/>
     <cellStyle name="Följd hyperlänk" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="170" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlänk" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlänk" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlänk" xfId="5" builtinId="8" hidden="1"/>
@@ -652,6 +724,20 @@
     <cellStyle name="Hyperlänk" xfId="137" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlänk" xfId="139" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlänk" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="169" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -981,10 +1067,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J44" sqref="J44"/>
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -995,7 +1081,7 @@
     <col min="4" max="4" width="12" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="13" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="6" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="63.5" customWidth="1"/>
+    <col min="7" max="7" width="82.6640625" customWidth="1"/>
     <col min="8" max="8" width="19.1640625" customWidth="1"/>
     <col min="9" max="9" width="34" customWidth="1"/>
     <col min="10" max="10" width="48.33203125" customWidth="1"/>
@@ -1027,7 +1113,7 @@
         <v>49</v>
       </c>
       <c r="J1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -1149,7 +1235,7 @@
         <v>23</v>
       </c>
       <c r="J12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1166,7 +1252,7 @@
         <v>47</v>
       </c>
       <c r="J14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1183,7 +1269,7 @@
         <v>25</v>
       </c>
       <c r="J15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1200,7 +1286,7 @@
         <v>84</v>
       </c>
       <c r="J16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1217,7 +1303,7 @@
         <v>85</v>
       </c>
       <c r="J17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1318,7 +1404,7 @@
         <v>32</v>
       </c>
       <c r="J26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1363,7 +1449,7 @@
         <v>76</v>
       </c>
       <c r="J29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1380,7 +1466,7 @@
         <v>86</v>
       </c>
       <c r="J30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1397,7 +1483,7 @@
         <v>46</v>
       </c>
       <c r="J31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1414,60 +1500,107 @@
         <v>45</v>
       </c>
       <c r="J32" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" t="s">
+        <v>97</v>
+      </c>
+      <c r="G33" t="s">
+        <v>104</v>
+      </c>
+      <c r="I33" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
         <v>14</v>
       </c>
       <c r="B34" t="s">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="G34" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="I34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
         <v>14</v>
       </c>
       <c r="B35" t="s">
+        <v>101</v>
+      </c>
+      <c r="G35" t="s">
+        <v>106</v>
+      </c>
+      <c r="I35" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" t="s">
+        <v>19</v>
+      </c>
+      <c r="G37" t="s">
+        <v>71</v>
+      </c>
+      <c r="I37" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" t="s">
         <v>20</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G38" t="s">
         <v>70</v>
       </c>
-      <c r="I35" t="s">
+      <c r="I38" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
-      <c r="A36" t="s">
+    <row r="39" spans="1:9">
+      <c r="A39" t="s">
         <v>14</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B39" t="s">
         <v>21</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G39" t="s">
         <v>72</v>
       </c>
-      <c r="I36" t="s">
+      <c r="I39" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
-      <c r="A38" t="s">
+    <row r="41" spans="1:9">
+      <c r="A41" t="s">
         <v>91</v>
       </c>
-      <c r="G38" t="s">
-        <v>93</v>
-      </c>
-      <c r="J38" t="s">
-        <v>96</v>
+      <c r="G41" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" t="s">
+        <v>91</v>
+      </c>
+      <c r="G43" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/toolbox_data/parsers/pp_sharkweb_parser.xlsx
+++ b/toolbox_data/parsers/pp_sharkweb_parser.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22221"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22416"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="1660" yWindow="320" windowWidth="33780" windowHeight="22200" tabRatio="500"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="111">
   <si>
     <t>Node level</t>
   </si>
@@ -343,6 +343,15 @@
   </si>
   <si>
     <t>if $Text(u'Volume per cell (um3)') and ($Text('Parameter') == u'Abundance'): $CopyVariable(p='Carbon per litre (calculated)', v=$Float('Value') * float($Text(u'Volume per cell (um3)')) ** 0.811 * 0.288 if ($Text('Class') + $Text('taxon_class')) in [u'Bacillariophyceae', u'Coscinodiscophyceae'] else $Float('Value') * float($Text(u'Volume per cell (um3)')) ** 0.939 * 0.216 , u=u'pgC/l', q=u'')</t>
+  </si>
+  <si>
+    <t>Plankton group</t>
+  </si>
+  <si>
+    <t>$PlanktonGroup($Text('used_taxon_name'))</t>
+  </si>
+  <si>
+    <t>PLANKTON_GROUP</t>
   </si>
 </sst>
 </file>
@@ -391,8 +400,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="171">
+  <cellStyleXfs count="173">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -567,7 +578,7 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="171">
+  <cellStyles count="173">
     <cellStyle name="Följd hyperlänk" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Följd hyperlänk" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Följd hyperlänk" xfId="6" builtinId="9" hidden="1"/>
@@ -653,6 +664,7 @@
     <cellStyle name="Följd hyperlänk" xfId="166" builtinId="9" hidden="1"/>
     <cellStyle name="Följd hyperlänk" xfId="168" builtinId="9" hidden="1"/>
     <cellStyle name="Följd hyperlänk" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="172" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlänk" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlänk" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlänk" xfId="5" builtinId="8" hidden="1"/>
@@ -738,6 +750,7 @@
     <cellStyle name="Hyperlänk" xfId="165" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlänk" xfId="167" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlänk" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="171" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1067,10 +1080,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1491,115 +1504,132 @@
         <v>14</v>
       </c>
       <c r="B32" t="s">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="G32" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="I32" t="s">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="J32" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:10">
       <c r="A33" t="s">
         <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="G33" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="I33" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="J33" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" t="s">
         <v>14</v>
       </c>
       <c r="B34" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G34" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I34" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" t="s">
         <v>14</v>
       </c>
       <c r="B35" t="s">
+        <v>99</v>
+      </c>
+      <c r="G35" t="s">
+        <v>105</v>
+      </c>
+      <c r="I35" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" t="s">
         <v>101</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G36" t="s">
         <v>106</v>
       </c>
-      <c r="I35" t="s">
+      <c r="I36" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
-      <c r="A37" t="s">
-        <v>14</v>
-      </c>
-      <c r="B37" t="s">
-        <v>19</v>
-      </c>
-      <c r="G37" t="s">
-        <v>71</v>
-      </c>
-      <c r="I37" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:10">
       <c r="A38" t="s">
         <v>14</v>
       </c>
       <c r="B38" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G38" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I38" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" t="s">
         <v>14</v>
       </c>
       <c r="B39" t="s">
+        <v>20</v>
+      </c>
+      <c r="G39" t="s">
+        <v>70</v>
+      </c>
+      <c r="I39" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40" t="s">
         <v>21</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G40" t="s">
         <v>72</v>
       </c>
-      <c r="I39" t="s">
+      <c r="I40" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
-      <c r="A41" t="s">
+    <row r="42" spans="1:10">
+      <c r="A42" t="s">
         <v>91</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G42" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
-      <c r="A43" t="s">
+    <row r="44" spans="1:10">
+      <c r="A44" t="s">
         <v>91</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G44" t="s">
         <v>107</v>
       </c>
     </row>

--- a/toolbox_data/parsers/pp_sharkweb_parser.xlsx
+++ b/toolbox_data/parsers/pp_sharkweb_parser.xlsx
@@ -330,21 +330,9 @@
     <t>C_PER_CELL_OTHER</t>
   </si>
   <si>
-    <t>if ($Text('Parameter') == u'Abundance') and $Text(u'Volume per cell (um3)'): $CopyVariable(p='Biovolume conc (calculated)', v=$Float('Value') * float($Text(u'Volume per cell (um3)')), u=u'µm3/l', q=u'')</t>
-  </si>
-  <si>
     <t>$Text('Volume per cell (um3)')</t>
   </si>
   <si>
-    <t>float($Text(u'Volume per cell (um3)')) ** 0.811 * 0.288 if $Text(u'Volume per cell (um3)') and ($Text('Class') + $Text('taxon_class')) in [u'Bacillariophyceae', u'Coscinodiscophyceae'] else u''</t>
-  </si>
-  <si>
-    <t>float($Text(u'Volume per cell (um3)')) ** 0.939 * 0.216 if $Text(u'Volume per cell (um3)') and ($Text('Class') + $Text('taxon_class')) not in [u'Bacillariophyceae', u'Coscinodiscophyceae'] else u''</t>
-  </si>
-  <si>
-    <t>if $Text(u'Volume per cell (um3)') and ($Text('Parameter') == u'Abundance'): $CopyVariable(p='Carbon per litre (calculated)', v=$Float('Value') * float($Text(u'Volume per cell (um3)')) ** 0.811 * 0.288 if ($Text('Class') + $Text('taxon_class')) in [u'Bacillariophyceae', u'Coscinodiscophyceae'] else $Float('Value') * float($Text(u'Volume per cell (um3)')) ** 0.939 * 0.216 , u=u'pgC/l', q=u'')</t>
-  </si>
-  <si>
     <t>Plankton group</t>
   </si>
   <si>
@@ -352,6 +340,18 @@
   </si>
   <si>
     <t>PLANKTON_GROUP</t>
+  </si>
+  <si>
+    <t>$Float(u'Volume per cell (um3)') ** 0.811 * 0.288 if $Text(u'Volume per cell (um3)') and ($Text('Class') + $Text('taxon_class')) in [u'Bacillariophyceae', u'Coscinodiscophyceae'] else u''</t>
+  </si>
+  <si>
+    <t>$Float(u'Volume per cell (um3)') ** 0.939 * 0.216 if $Text(u'Volume per cell (um3)') and ($Text('Class') + $Text('taxon_class')) not in [u'Bacillariophyceae', u'Coscinodiscophyceae'] else u''</t>
+  </si>
+  <si>
+    <t>if ($Text('Parameter') == u'Abundance') and $Text(u'Volume per cell (um3)'): $CopyVariable(p='Biovolume conc (calculated)', v=$Float('Value') * $Float(u'Volume per cell (um3)'), u=u'µm3/l', q=u'')</t>
+  </si>
+  <si>
+    <t>if $Text(u'Volume per cell (um3)') and ($Text('Parameter') == u'Abundance'): $CopyVariable(p='Carbon per litre (calculated)', v=$Float('Value') * $Float(u'Volume per cell (um3)') ** 0.811 * 0.288 if ($Text('Class') + $Text('taxon_class')) in [u'Bacillariophyceae', u'Coscinodiscophyceae'] else $Float('Value') * $Float(u'Volume per cell (um3)') ** 0.939 * 0.216 , u=u'pgC/l', q=u'')</t>
   </si>
 </sst>
 </file>
@@ -1083,7 +1083,7 @@
   <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1504,13 +1504,13 @@
         <v>14</v>
       </c>
       <c r="B32" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G32" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="I32" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="J32" t="s">
         <v>95</v>
@@ -1541,7 +1541,7 @@
         <v>97</v>
       </c>
       <c r="G34" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I34" t="s">
         <v>98</v>
@@ -1555,7 +1555,7 @@
         <v>99</v>
       </c>
       <c r="G35" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I35" t="s">
         <v>100</v>
@@ -1569,7 +1569,7 @@
         <v>101</v>
       </c>
       <c r="G36" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I36" t="s">
         <v>102</v>
@@ -1622,7 +1622,7 @@
         <v>91</v>
       </c>
       <c r="G42" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -1630,7 +1630,7 @@
         <v>91</v>
       </c>
       <c r="G44" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/toolbox_data/parsers/pp_sharkweb_parser.xlsx
+++ b/toolbox_data/parsers/pp_sharkweb_parser.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="113">
   <si>
     <t>Node level</t>
   </si>
@@ -352,6 +352,12 @@
   </si>
   <si>
     <t>if $Text(u'Volume per cell (um3)') and ($Text('Parameter') == u'Abundance'): $CopyVariable(p='Carbon per litre (calculated)', v=$Float('Value') * $Float(u'Volume per cell (um3)') ** 0.811 * 0.288 if ($Text('Class') + $Text('taxon_class')) in [u'Bacillariophyceae', u'Coscinodiscophyceae'] else $Float('Value') * $Float(u'Volume per cell (um3)') ** 0.939 * 0.216 , u=u'pgC/l', q=u'')</t>
+  </si>
+  <si>
+    <t>Character encoding</t>
+  </si>
+  <si>
+    <t>utf8</t>
   </si>
 </sst>
 </file>
@@ -400,8 +406,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="173">
+  <cellStyleXfs count="175">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -578,7 +586,7 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="173">
+  <cellStyles count="175">
     <cellStyle name="Följd hyperlänk" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Följd hyperlänk" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Följd hyperlänk" xfId="6" builtinId="9" hidden="1"/>
@@ -665,6 +673,7 @@
     <cellStyle name="Följd hyperlänk" xfId="168" builtinId="9" hidden="1"/>
     <cellStyle name="Följd hyperlänk" xfId="170" builtinId="9" hidden="1"/>
     <cellStyle name="Följd hyperlänk" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="174" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlänk" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlänk" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlänk" xfId="5" builtinId="8" hidden="1"/>
@@ -751,6 +760,7 @@
     <cellStyle name="Hyperlänk" xfId="167" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlänk" xfId="169" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlänk" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="173" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1080,10 +1090,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J44"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1206,18 +1216,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" t="s">
-        <v>56</v>
-      </c>
-      <c r="I10" t="s">
-        <v>44</v>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G9" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1225,13 +1232,13 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I11" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1239,32 +1246,29 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" t="s">
+        <v>57</v>
+      </c>
+      <c r="I12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
         <v>50</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G13" t="s">
         <v>59</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I13" t="s">
         <v>23</v>
       </c>
-      <c r="J12" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" t="s">
-        <v>63</v>
-      </c>
-      <c r="I14" t="s">
-        <v>47</v>
-      </c>
-      <c r="J14" t="s">
+      <c r="J13" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1273,13 +1277,13 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I15" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="J15" t="s">
         <v>95</v>
@@ -1290,13 +1294,13 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G16" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="I16" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="J16" t="s">
         <v>95</v>
@@ -1307,13 +1311,13 @@
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G17" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="I17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J17" t="s">
         <v>95</v>
@@ -1324,27 +1328,30 @@
         <v>7</v>
       </c>
       <c r="B18" t="s">
+        <v>82</v>
+      </c>
+      <c r="G18" t="s">
+        <v>64</v>
+      </c>
+      <c r="I18" t="s">
+        <v>85</v>
+      </c>
+      <c r="J18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
         <v>8</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G19" t="s">
         <v>60</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I19" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" t="s">
-        <v>78</v>
-      </c>
-      <c r="I20" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1352,13 +1359,13 @@
         <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G21" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="I21" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1366,13 +1373,13 @@
         <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1380,27 +1387,27 @@
         <v>9</v>
       </c>
       <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>62</v>
+      </c>
+      <c r="I23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" t="s">
         <v>13</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G24" t="s">
         <v>66</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I24" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" t="s">
-        <v>67</v>
-      </c>
-      <c r="I25" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1408,16 +1415,13 @@
         <v>14</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="G26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I26" t="s">
-        <v>32</v>
-      </c>
-      <c r="J26" t="s">
-        <v>95</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1425,13 +1429,16 @@
         <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="G27" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="I27" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="J27" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1439,13 +1446,13 @@
         <v>14</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G28" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="I28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1453,16 +1460,13 @@
         <v>14</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="G29" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="I29" t="s">
-        <v>76</v>
-      </c>
-      <c r="J29" t="s">
-        <v>96</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1470,16 +1474,16 @@
         <v>14</v>
       </c>
       <c r="B30" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="G30" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I30" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J30" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1487,16 +1491,16 @@
         <v>14</v>
       </c>
       <c r="B31" t="s">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="G31" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="I31" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="J31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1504,13 +1508,13 @@
         <v>14</v>
       </c>
       <c r="B32" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="G32" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="I32" t="s">
-        <v>106</v>
+        <v>46</v>
       </c>
       <c r="J32" t="s">
         <v>95</v>
@@ -1521,13 +1525,13 @@
         <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="G33" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="I33" t="s">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="J33" t="s">
         <v>95</v>
@@ -1538,13 +1542,16 @@
         <v>14</v>
       </c>
       <c r="B34" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="G34" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="I34" t="s">
-        <v>98</v>
+        <v>45</v>
+      </c>
+      <c r="J34" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1552,13 +1559,13 @@
         <v>14</v>
       </c>
       <c r="B35" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G35" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="I35" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1566,27 +1573,27 @@
         <v>14</v>
       </c>
       <c r="B36" t="s">
+        <v>99</v>
+      </c>
+      <c r="G36" t="s">
+        <v>107</v>
+      </c>
+      <c r="I36" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" t="s">
         <v>101</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G37" t="s">
         <v>108</v>
       </c>
-      <c r="I36" t="s">
+      <c r="I37" t="s">
         <v>102</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38" t="s">
-        <v>14</v>
-      </c>
-      <c r="B38" t="s">
-        <v>19</v>
-      </c>
-      <c r="G38" t="s">
-        <v>71</v>
-      </c>
-      <c r="I38" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -1594,13 +1601,13 @@
         <v>14</v>
       </c>
       <c r="B39" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G39" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1608,28 +1615,42 @@
         <v>14</v>
       </c>
       <c r="B40" t="s">
+        <v>20</v>
+      </c>
+      <c r="G40" t="s">
+        <v>70</v>
+      </c>
+      <c r="I40" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41" t="s">
         <v>21</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G41" t="s">
         <v>72</v>
       </c>
-      <c r="I40" t="s">
+      <c r="I41" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
-      <c r="A42" t="s">
+    <row r="43" spans="1:10">
+      <c r="A43" t="s">
         <v>91</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G43" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
-      <c r="A44" t="s">
+    <row r="45" spans="1:10">
+      <c r="A45" t="s">
         <v>91</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G45" t="s">
         <v>110</v>
       </c>
     </row>

--- a/toolbox_data/parsers/pp_sharkweb_parser.xlsx
+++ b/toolbox_data/parsers/pp_sharkweb_parser.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22416"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1660" yWindow="320" windowWidth="33780" windowHeight="22200" tabRatio="500"/>
+    <workbookView xWindow="2140" yWindow="0" windowWidth="33780" windowHeight="22200" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="pp_import_matrix.txt" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="113">
   <si>
     <t>Node level</t>
   </si>
@@ -27,18 +27,6 @@
     <t>Key</t>
   </si>
   <si>
-    <t>Short name</t>
-  </si>
-  <si>
-    <t>English name</t>
-  </si>
-  <si>
-    <t>Swedish name</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
     <t>INFO</t>
   </si>
   <si>
@@ -204,18 +192,9 @@
     <t>$Float('Station water depth')</t>
   </si>
   <si>
-    <t>$Text('Sample minimum depth')</t>
-  </si>
-  <si>
-    <t>$Text('Sample maximum depth')</t>
-  </si>
-  <si>
     <t>$Text('visit_lat_dm')</t>
   </si>
   <si>
-    <t>$Text('long_dd')</t>
-  </si>
-  <si>
     <t>$Text('visit_long_dm')</t>
   </si>
   <si>
@@ -231,9 +210,6 @@
     <t>$Text('used_taxon_name')</t>
   </si>
   <si>
-    <t>$Text('Value')</t>
-  </si>
-  <si>
     <t>$Text('Parameter')</t>
   </si>
   <si>
@@ -282,9 +258,6 @@
     <t>TROPHY</t>
   </si>
   <si>
-    <t>$Text('lat_dd')</t>
-  </si>
-  <si>
     <t>SMP_ID</t>
   </si>
   <si>
@@ -330,9 +303,6 @@
     <t>C_PER_CELL_OTHER</t>
   </si>
   <si>
-    <t>$Text('Volume per cell (um3)')</t>
-  </si>
-  <si>
     <t>Plankton group</t>
   </si>
   <si>
@@ -358,6 +328,36 @@
   </si>
   <si>
     <t>utf8</t>
+  </si>
+  <si>
+    <t>Format</t>
+  </si>
+  <si>
+    <t>Integer</t>
+  </si>
+  <si>
+    <t>Float</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>$Float('lat_dd')</t>
+  </si>
+  <si>
+    <t>$Float('long_dd')</t>
+  </si>
+  <si>
+    <t>$Float('Sample minimum depth')</t>
+  </si>
+  <si>
+    <t>$Float('Sample maximum depth')</t>
+  </si>
+  <si>
+    <t>$Float('Volume per cell (um3)')</t>
+  </si>
+  <si>
+    <t>$Float('Value')</t>
   </si>
 </sst>
 </file>
@@ -406,8 +406,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="175">
+  <cellStyleXfs count="185">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -586,7 +596,7 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="175">
+  <cellStyles count="185">
     <cellStyle name="Följd hyperlänk" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Följd hyperlänk" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Följd hyperlänk" xfId="6" builtinId="9" hidden="1"/>
@@ -674,6 +684,11 @@
     <cellStyle name="Följd hyperlänk" xfId="170" builtinId="9" hidden="1"/>
     <cellStyle name="Följd hyperlänk" xfId="172" builtinId="9" hidden="1"/>
     <cellStyle name="Följd hyperlänk" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="184" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlänk" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlänk" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlänk" xfId="5" builtinId="8" hidden="1"/>
@@ -761,6 +776,11 @@
     <cellStyle name="Hyperlänk" xfId="169" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlänk" xfId="171" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlänk" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="183" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1090,27 +1110,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:B9"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="18.1640625" customWidth="1"/>
-    <col min="2" max="2" width="55.83203125" customWidth="1"/>
-    <col min="3" max="3" width="4.6640625" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="12" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="6" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="82.6640625" customWidth="1"/>
-    <col min="8" max="8" width="19.1640625" customWidth="1"/>
-    <col min="9" max="9" width="34" customWidth="1"/>
-    <col min="10" max="10" width="48.33203125" customWidth="1"/>
+    <col min="2" max="2" width="28.1640625" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="82.6640625" customWidth="1"/>
+    <col min="5" max="5" width="19.1640625" customWidth="1"/>
+    <col min="6" max="6" width="34" customWidth="1"/>
+    <col min="7" max="7" width="48.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1118,540 +1135,606 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" t="s">
+        <v>106</v>
+      </c>
+      <c r="D13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" t="s">
+        <v>106</v>
+      </c>
+      <c r="D15" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" t="s">
+        <v>107</v>
+      </c>
+      <c r="F17" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" t="s">
+        <v>105</v>
+      </c>
+      <c r="D18" t="s">
+        <v>108</v>
+      </c>
+      <c r="F18" t="s">
+        <v>77</v>
+      </c>
+      <c r="G18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="C19" t="s">
+        <v>105</v>
+      </c>
+      <c r="D19" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>106</v>
+      </c>
+      <c r="D21" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>105</v>
+      </c>
+      <c r="D22" t="s">
+        <v>109</v>
+      </c>
+      <c r="F22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" t="s">
+        <v>110</v>
+      </c>
+      <c r="F23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" t="s">
+        <v>106</v>
+      </c>
+      <c r="D26" t="s">
+        <v>60</v>
+      </c>
+      <c r="F26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" t="s">
+        <v>106</v>
+      </c>
+      <c r="D27" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" t="s">
+        <v>106</v>
+      </c>
+      <c r="D28" t="s">
+        <v>32</v>
+      </c>
+      <c r="F28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" t="s">
+        <v>61</v>
+      </c>
+      <c r="F29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" t="s">
+        <v>106</v>
+      </c>
+      <c r="D30" t="s">
+        <v>81</v>
+      </c>
+      <c r="F30" t="s">
+        <v>68</v>
+      </c>
+      <c r="G30" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" t="s">
+        <v>106</v>
+      </c>
+      <c r="D31" t="s">
+        <v>83</v>
+      </c>
+      <c r="F31" t="s">
+        <v>78</v>
+      </c>
+      <c r="G31" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" t="s">
+        <v>106</v>
+      </c>
+      <c r="D32" t="s">
+        <v>66</v>
+      </c>
+      <c r="F32" t="s">
+        <v>42</v>
+      </c>
+      <c r="G32" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" t="s">
+        <v>106</v>
+      </c>
+      <c r="D33" t="s">
+        <v>95</v>
+      </c>
+      <c r="F33" t="s">
+        <v>96</v>
+      </c>
+      <c r="G33" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" t="s">
+        <v>106</v>
+      </c>
+      <c r="D34" t="s">
+        <v>67</v>
+      </c>
+      <c r="F34" t="s">
+        <v>41</v>
+      </c>
+      <c r="G34" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35" t="s">
+        <v>105</v>
+      </c>
+      <c r="D35" t="s">
+        <v>111</v>
+      </c>
+      <c r="F35" t="s">
         <v>89</v>
       </c>
-      <c r="I1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J1" t="s">
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" t="s">
+        <v>90</v>
+      </c>
+      <c r="C36" t="s">
+        <v>105</v>
+      </c>
+      <c r="D36" t="s">
+        <v>97</v>
+      </c>
+      <c r="F36" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" t="s">
+        <v>105</v>
+      </c>
+      <c r="D37" t="s">
+        <v>98</v>
+      </c>
+      <c r="F37" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>111</v>
-      </c>
-      <c r="G9" t="s">
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" t="s">
+        <v>106</v>
+      </c>
+      <c r="D39" t="s">
+        <v>63</v>
+      </c>
+      <c r="F39" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" t="s">
+        <v>105</v>
+      </c>
+      <c r="D40" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" t="s">
-        <v>56</v>
-      </c>
-      <c r="I11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" t="s">
-        <v>57</v>
-      </c>
-      <c r="I12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" t="s">
-        <v>50</v>
-      </c>
-      <c r="G13" t="s">
-        <v>59</v>
-      </c>
-      <c r="I13" t="s">
-        <v>23</v>
-      </c>
-      <c r="J13" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" t="s">
-        <v>79</v>
-      </c>
-      <c r="G15" t="s">
-        <v>63</v>
-      </c>
-      <c r="I15" t="s">
-        <v>47</v>
-      </c>
-      <c r="J15" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" t="s">
-        <v>80</v>
-      </c>
-      <c r="G16" t="s">
-        <v>65</v>
-      </c>
-      <c r="I16" t="s">
-        <v>25</v>
-      </c>
-      <c r="J16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" t="s">
-        <v>81</v>
-      </c>
-      <c r="G17" t="s">
-        <v>87</v>
-      </c>
-      <c r="I17" t="s">
-        <v>84</v>
-      </c>
-      <c r="J17" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="F40" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" t="s">
+        <v>106</v>
+      </c>
+      <c r="D41" t="s">
+        <v>64</v>
+      </c>
+      <c r="F41" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="s">
         <v>82</v>
       </c>
-      <c r="G18" t="s">
-        <v>64</v>
-      </c>
-      <c r="I18" t="s">
-        <v>85</v>
-      </c>
-      <c r="J18" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" t="s">
-        <v>8</v>
-      </c>
-      <c r="G19" t="s">
-        <v>60</v>
-      </c>
-      <c r="I19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21" t="s">
-        <v>78</v>
-      </c>
-      <c r="I21" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s">
-        <v>61</v>
-      </c>
-      <c r="I22" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" t="s">
-        <v>62</v>
-      </c>
-      <c r="I23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" t="s">
-        <v>66</v>
-      </c>
-      <c r="I24" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" t="s">
-        <v>67</v>
-      </c>
-      <c r="I26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" t="s">
-        <v>14</v>
-      </c>
-      <c r="B27" t="s">
-        <v>51</v>
-      </c>
-      <c r="G27" t="s">
-        <v>69</v>
-      </c>
-      <c r="I27" t="s">
-        <v>32</v>
-      </c>
-      <c r="J27" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" t="s">
-        <v>14</v>
-      </c>
-      <c r="B28" t="s">
-        <v>17</v>
-      </c>
-      <c r="G28" t="s">
-        <v>36</v>
-      </c>
-      <c r="I28" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29" t="s">
-        <v>68</v>
-      </c>
-      <c r="I29" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" t="s">
-        <v>14</v>
-      </c>
-      <c r="B30" t="s">
-        <v>48</v>
-      </c>
-      <c r="G30" t="s">
-        <v>90</v>
-      </c>
-      <c r="I30" t="s">
-        <v>76</v>
-      </c>
-      <c r="J30" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" t="s">
-        <v>14</v>
-      </c>
-      <c r="B31" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" t="s">
-        <v>92</v>
-      </c>
-      <c r="I31" t="s">
-        <v>86</v>
-      </c>
-      <c r="J31" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" t="s">
-        <v>14</v>
-      </c>
-      <c r="B32" t="s">
-        <v>77</v>
-      </c>
-      <c r="G32" t="s">
-        <v>74</v>
-      </c>
-      <c r="I32" t="s">
-        <v>46</v>
-      </c>
-      <c r="J32" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" t="s">
-        <v>14</v>
-      </c>
-      <c r="B33" t="s">
-        <v>104</v>
-      </c>
-      <c r="G33" t="s">
-        <v>105</v>
-      </c>
-      <c r="I33" t="s">
-        <v>106</v>
-      </c>
-      <c r="J33" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" t="s">
-        <v>14</v>
-      </c>
-      <c r="B34" t="s">
-        <v>73</v>
-      </c>
-      <c r="G34" t="s">
-        <v>75</v>
-      </c>
-      <c r="I34" t="s">
-        <v>45</v>
-      </c>
-      <c r="J34" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" t="s">
-        <v>14</v>
-      </c>
-      <c r="B35" t="s">
-        <v>97</v>
-      </c>
-      <c r="G35" t="s">
-        <v>103</v>
-      </c>
-      <c r="I35" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" t="s">
-        <v>14</v>
-      </c>
-      <c r="B36" t="s">
+      <c r="D43" t="s">
         <v>99</v>
       </c>
-      <c r="G36" t="s">
-        <v>107</v>
-      </c>
-      <c r="I36" t="s">
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
+        <v>82</v>
+      </c>
+      <c r="D45" t="s">
         <v>100</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" t="s">
-        <v>14</v>
-      </c>
-      <c r="B37" t="s">
-        <v>101</v>
-      </c>
-      <c r="G37" t="s">
-        <v>108</v>
-      </c>
-      <c r="I37" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="A39" t="s">
-        <v>14</v>
-      </c>
-      <c r="B39" t="s">
-        <v>19</v>
-      </c>
-      <c r="G39" t="s">
-        <v>71</v>
-      </c>
-      <c r="I39" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="A40" t="s">
-        <v>14</v>
-      </c>
-      <c r="B40" t="s">
-        <v>20</v>
-      </c>
-      <c r="G40" t="s">
-        <v>70</v>
-      </c>
-      <c r="I40" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="A41" t="s">
-        <v>14</v>
-      </c>
-      <c r="B41" t="s">
-        <v>21</v>
-      </c>
-      <c r="G41" t="s">
-        <v>72</v>
-      </c>
-      <c r="I41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="A43" t="s">
-        <v>91</v>
-      </c>
-      <c r="G43" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="A45" t="s">
-        <v>91</v>
-      </c>
-      <c r="G45" t="s">
-        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/toolbox_data/parsers/pp_sharkweb_parser.xlsx
+++ b/toolbox_data/parsers/pp_sharkweb_parser.xlsx
@@ -177,9 +177,6 @@
     <t>Excel sheet name</t>
   </si>
   <si>
-    <t>$Text('Year')</t>
-  </si>
-  <si>
     <t>$Text('Sampling date')</t>
   </si>
   <si>
@@ -358,6 +355,9 @@
   </si>
   <si>
     <t>$Float('Value')</t>
+  </si>
+  <si>
+    <t>$Integer('Year')</t>
   </si>
 </sst>
 </file>
@@ -1112,8 +1112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1135,16 +1135,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F1" t="s">
         <v>45</v>
       </c>
       <c r="G1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1169,7 +1169,7 @@
         <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1180,7 +1180,7 @@
         <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1229,10 +1229,10 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" t="s">
         <v>101</v>
-      </c>
-      <c r="D9" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1243,10 +1243,10 @@
         <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D11" t="s">
-        <v>52</v>
+        <v>112</v>
       </c>
       <c r="F11" t="s">
         <v>40</v>
@@ -1263,7 +1263,7 @@
         <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F12" t="s">
         <v>18</v>
@@ -1277,16 +1277,16 @@
         <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F13" t="s">
         <v>19</v>
       </c>
       <c r="G13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1294,19 +1294,19 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F15" t="s">
         <v>43</v>
       </c>
       <c r="G15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1314,19 +1314,19 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F16" t="s">
         <v>21</v>
       </c>
       <c r="G16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1334,19 +1334,19 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1354,19 +1354,19 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1377,10 +1377,10 @@
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F19" t="s">
         <v>20</v>
@@ -1394,13 +1394,13 @@
         <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1411,10 +1411,10 @@
         <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F22" t="s">
         <v>22</v>
@@ -1428,10 +1428,10 @@
         <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F23" t="s">
         <v>23</v>
@@ -1445,7 +1445,7 @@
         <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F24" t="s">
         <v>24</v>
@@ -1459,10 +1459,10 @@
         <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F26" t="s">
         <v>25</v>
@@ -1476,16 +1476,16 @@
         <v>47</v>
       </c>
       <c r="C27" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F27" t="s">
         <v>28</v>
       </c>
       <c r="G27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1496,7 +1496,7 @@
         <v>13</v>
       </c>
       <c r="C28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D28" t="s">
         <v>32</v>
@@ -1513,7 +1513,7 @@
         <v>12</v>
       </c>
       <c r="D29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F29" t="s">
         <v>26</v>
@@ -1527,16 +1527,16 @@
         <v>44</v>
       </c>
       <c r="C30" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1547,16 +1547,16 @@
         <v>14</v>
       </c>
       <c r="C31" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1564,19 +1564,19 @@
         <v>10</v>
       </c>
       <c r="B32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C32" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F32" t="s">
         <v>42</v>
       </c>
       <c r="G32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1584,19 +1584,19 @@
         <v>10</v>
       </c>
       <c r="B33" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" t="s">
+        <v>105</v>
+      </c>
+      <c r="D33" t="s">
         <v>94</v>
       </c>
-      <c r="C33" t="s">
-        <v>106</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="F33" t="s">
         <v>95</v>
       </c>
-      <c r="F33" t="s">
-        <v>96</v>
-      </c>
       <c r="G33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1604,19 +1604,19 @@
         <v>10</v>
       </c>
       <c r="B34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C34" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F34" t="s">
         <v>41</v>
       </c>
       <c r="G34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1624,16 +1624,16 @@
         <v>10</v>
       </c>
       <c r="B35" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" t="s">
+        <v>104</v>
+      </c>
+      <c r="D35" t="s">
+        <v>110</v>
+      </c>
+      <c r="F35" t="s">
         <v>88</v>
-      </c>
-      <c r="C35" t="s">
-        <v>105</v>
-      </c>
-      <c r="D35" t="s">
-        <v>111</v>
-      </c>
-      <c r="F35" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1641,16 +1641,16 @@
         <v>10</v>
       </c>
       <c r="B36" t="s">
+        <v>89</v>
+      </c>
+      <c r="C36" t="s">
+        <v>104</v>
+      </c>
+      <c r="D36" t="s">
+        <v>96</v>
+      </c>
+      <c r="F36" t="s">
         <v>90</v>
-      </c>
-      <c r="C36" t="s">
-        <v>105</v>
-      </c>
-      <c r="D36" t="s">
-        <v>97</v>
-      </c>
-      <c r="F36" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1658,16 +1658,16 @@
         <v>10</v>
       </c>
       <c r="B37" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" t="s">
+        <v>104</v>
+      </c>
+      <c r="D37" t="s">
+        <v>97</v>
+      </c>
+      <c r="F37" t="s">
         <v>92</v>
-      </c>
-      <c r="C37" t="s">
-        <v>105</v>
-      </c>
-      <c r="D37" t="s">
-        <v>98</v>
-      </c>
-      <c r="F37" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1678,10 +1678,10 @@
         <v>15</v>
       </c>
       <c r="C39" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F39" t="s">
         <v>29</v>
@@ -1695,10 +1695,10 @@
         <v>16</v>
       </c>
       <c r="C40" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D40" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F40" t="s">
         <v>30</v>
@@ -1712,10 +1712,10 @@
         <v>17</v>
       </c>
       <c r="C41" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F41" t="s">
         <v>31</v>
@@ -1723,18 +1723,18 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D43" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D45" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/toolbox_data/parsers/pp_sharkweb_parser.xlsx
+++ b/toolbox_data/parsers/pp_sharkweb_parser.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22416"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2140" yWindow="0" windowWidth="33780" windowHeight="22200" tabRatio="500"/>
+    <workbookView xWindow="8460" yWindow="740" windowWidth="23240" windowHeight="21340" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="pp_import_matrix.txt" sheetId="1" r:id="rId1"/>
@@ -177,9 +177,6 @@
     <t>Excel sheet name</t>
   </si>
   <si>
-    <t>$Text('Sampling date')</t>
-  </si>
-  <si>
     <t>$Text('Sampling date')+u':'+$Text('used_station_name')</t>
   </si>
   <si>
@@ -358,6 +355,9 @@
   </si>
   <si>
     <t>$Integer('Year')</t>
+  </si>
+  <si>
+    <t>$Date('Sampling date')</t>
   </si>
 </sst>
 </file>
@@ -406,8 +406,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="185">
+  <cellStyleXfs count="187">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -596,7 +598,7 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="185">
+  <cellStyles count="187">
     <cellStyle name="Följd hyperlänk" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Följd hyperlänk" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Följd hyperlänk" xfId="6" builtinId="9" hidden="1"/>
@@ -689,6 +691,7 @@
     <cellStyle name="Följd hyperlänk" xfId="180" builtinId="9" hidden="1"/>
     <cellStyle name="Följd hyperlänk" xfId="182" builtinId="9" hidden="1"/>
     <cellStyle name="Följd hyperlänk" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="186" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlänk" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlänk" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlänk" xfId="5" builtinId="8" hidden="1"/>
@@ -781,6 +784,7 @@
     <cellStyle name="Hyperlänk" xfId="179" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlänk" xfId="181" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlänk" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="185" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1113,7 +1117,7 @@
   <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1135,16 +1139,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F1" t="s">
         <v>45</v>
       </c>
       <c r="G1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1169,7 +1173,7 @@
         <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1180,7 +1184,7 @@
         <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1229,10 +1233,10 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" t="s">
         <v>100</v>
-      </c>
-      <c r="D9" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1243,10 +1247,10 @@
         <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F11" t="s">
         <v>40</v>
@@ -1263,7 +1267,7 @@
         <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>52</v>
+        <v>112</v>
       </c>
       <c r="F12" t="s">
         <v>18</v>
@@ -1277,16 +1281,16 @@
         <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F13" t="s">
         <v>19</v>
       </c>
       <c r="G13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1294,19 +1298,19 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F15" t="s">
         <v>43</v>
       </c>
       <c r="G15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1314,19 +1318,19 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F16" t="s">
         <v>21</v>
       </c>
       <c r="G16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1334,19 +1338,19 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1354,19 +1358,19 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1377,10 +1381,10 @@
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F19" t="s">
         <v>20</v>
@@ -1394,13 +1398,13 @@
         <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1411,10 +1415,10 @@
         <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F22" t="s">
         <v>22</v>
@@ -1428,10 +1432,10 @@
         <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F23" t="s">
         <v>23</v>
@@ -1445,7 +1449,7 @@
         <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F24" t="s">
         <v>24</v>
@@ -1459,10 +1463,10 @@
         <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F26" t="s">
         <v>25</v>
@@ -1476,16 +1480,16 @@
         <v>47</v>
       </c>
       <c r="C27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F27" t="s">
         <v>28</v>
       </c>
       <c r="G27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1496,7 +1500,7 @@
         <v>13</v>
       </c>
       <c r="C28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D28" t="s">
         <v>32</v>
@@ -1513,7 +1517,7 @@
         <v>12</v>
       </c>
       <c r="D29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F29" t="s">
         <v>26</v>
@@ -1527,16 +1531,16 @@
         <v>44</v>
       </c>
       <c r="C30" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D30" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1547,16 +1551,16 @@
         <v>14</v>
       </c>
       <c r="C31" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1564,19 +1568,19 @@
         <v>10</v>
       </c>
       <c r="B32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F32" t="s">
         <v>42</v>
       </c>
       <c r="G32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1584,19 +1588,19 @@
         <v>10</v>
       </c>
       <c r="B33" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33" t="s">
+        <v>104</v>
+      </c>
+      <c r="D33" t="s">
         <v>93</v>
       </c>
-      <c r="C33" t="s">
-        <v>105</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="F33" t="s">
         <v>94</v>
       </c>
-      <c r="F33" t="s">
-        <v>95</v>
-      </c>
       <c r="G33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1604,19 +1608,19 @@
         <v>10</v>
       </c>
       <c r="B34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C34" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F34" t="s">
         <v>41</v>
       </c>
       <c r="G34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1624,16 +1628,16 @@
         <v>10</v>
       </c>
       <c r="B35" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" t="s">
+        <v>103</v>
+      </c>
+      <c r="D35" t="s">
+        <v>109</v>
+      </c>
+      <c r="F35" t="s">
         <v>87</v>
-      </c>
-      <c r="C35" t="s">
-        <v>104</v>
-      </c>
-      <c r="D35" t="s">
-        <v>110</v>
-      </c>
-      <c r="F35" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1641,16 +1645,16 @@
         <v>10</v>
       </c>
       <c r="B36" t="s">
+        <v>88</v>
+      </c>
+      <c r="C36" t="s">
+        <v>103</v>
+      </c>
+      <c r="D36" t="s">
+        <v>95</v>
+      </c>
+      <c r="F36" t="s">
         <v>89</v>
-      </c>
-      <c r="C36" t="s">
-        <v>104</v>
-      </c>
-      <c r="D36" t="s">
-        <v>96</v>
-      </c>
-      <c r="F36" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1658,16 +1662,16 @@
         <v>10</v>
       </c>
       <c r="B37" t="s">
+        <v>90</v>
+      </c>
+      <c r="C37" t="s">
+        <v>103</v>
+      </c>
+      <c r="D37" t="s">
+        <v>96</v>
+      </c>
+      <c r="F37" t="s">
         <v>91</v>
-      </c>
-      <c r="C37" t="s">
-        <v>104</v>
-      </c>
-      <c r="D37" t="s">
-        <v>97</v>
-      </c>
-      <c r="F37" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1678,10 +1682,10 @@
         <v>15</v>
       </c>
       <c r="C39" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F39" t="s">
         <v>29</v>
@@ -1695,10 +1699,10 @@
         <v>16</v>
       </c>
       <c r="C40" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D40" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F40" t="s">
         <v>30</v>
@@ -1712,10 +1716,10 @@
         <v>17</v>
       </c>
       <c r="C41" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D41" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F41" t="s">
         <v>31</v>
@@ -1723,18 +1727,18 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D43" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D45" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/toolbox_data/parsers/pp_sharkweb_parser.xlsx
+++ b/toolbox_data/parsers/pp_sharkweb_parser.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22416"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8460" yWindow="740" windowWidth="23240" windowHeight="21340" tabRatio="500"/>
+    <workbookView xWindow="940" yWindow="180" windowWidth="34560" windowHeight="21520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="pp_import_matrix.txt" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="109">
   <si>
     <t>Node level</t>
   </si>
@@ -265,18 +265,6 @@
   </si>
   <si>
     <t>$Text('Trophy') if $Text('Trophy') else u'NS'</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>NS is used if field is empty.</t>
-  </si>
-  <si>
-    <t>Not translated.</t>
-  </si>
-  <si>
-    <t>Sometimes translated. Remove 'taxon_class' later.</t>
   </si>
   <si>
     <t>Reported cell volume</t>
@@ -406,8 +394,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="187">
+  <cellStyleXfs count="191">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -598,7 +590,7 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="187">
+  <cellStyles count="191">
     <cellStyle name="Följd hyperlänk" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Följd hyperlänk" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Följd hyperlänk" xfId="6" builtinId="9" hidden="1"/>
@@ -692,6 +684,8 @@
     <cellStyle name="Följd hyperlänk" xfId="182" builtinId="9" hidden="1"/>
     <cellStyle name="Följd hyperlänk" xfId="184" builtinId="9" hidden="1"/>
     <cellStyle name="Följd hyperlänk" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="190" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlänk" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlänk" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlänk" xfId="5" builtinId="8" hidden="1"/>
@@ -785,6 +779,8 @@
     <cellStyle name="Hyperlänk" xfId="181" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlänk" xfId="183" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlänk" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="189" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1114,10 +1110,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1128,10 +1124,9 @@
     <col min="4" max="4" width="82.6640625" customWidth="1"/>
     <col min="5" max="5" width="19.1640625" customWidth="1"/>
     <col min="6" max="6" width="34" customWidth="1"/>
-    <col min="7" max="7" width="48.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1139,7 +1134,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D1" t="s">
         <v>78</v>
@@ -1147,11 +1142,8 @@
       <c r="F1" t="s">
         <v>45</v>
       </c>
-      <c r="G1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1165,7 +1157,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1176,7 +1168,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1187,7 +1179,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1198,7 +1190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1209,7 +1201,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -1220,7 +1212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -1228,18 +1220,18 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -1247,16 +1239,16 @@
         <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D11" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -1267,13 +1259,13 @@
         <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -1281,7 +1273,7 @@
         <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D13" t="s">
         <v>53</v>
@@ -1289,11 +1281,8 @@
       <c r="F13" t="s">
         <v>19</v>
       </c>
-      <c r="G13" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -1301,7 +1290,7 @@
         <v>69</v>
       </c>
       <c r="C15" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D15" t="s">
         <v>55</v>
@@ -1309,11 +1298,8 @@
       <c r="F15" t="s">
         <v>43</v>
       </c>
-      <c r="G15" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -1321,7 +1307,7 @@
         <v>70</v>
       </c>
       <c r="C16" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D16" t="s">
         <v>56</v>
@@ -1329,11 +1315,8 @@
       <c r="F16" t="s">
         <v>21</v>
       </c>
-      <c r="G16" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -1341,19 +1324,16 @@
         <v>71</v>
       </c>
       <c r="C17" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D17" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F17" t="s">
         <v>74</v>
       </c>
-      <c r="G17" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -1361,19 +1341,16 @@
         <v>72</v>
       </c>
       <c r="C18" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D18" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F18" t="s">
         <v>75</v>
       </c>
-      <c r="G18" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -1381,7 +1358,7 @@
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D19" t="s">
         <v>54</v>
@@ -1390,7 +1367,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -1398,7 +1375,7 @@
         <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D21" t="s">
         <v>68</v>
@@ -1407,7 +1384,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -1415,16 +1392,16 @@
         <v>7</v>
       </c>
       <c r="C22" t="s">
+        <v>99</v>
+      </c>
+      <c r="D22" t="s">
         <v>103</v>
-      </c>
-      <c r="D22" t="s">
-        <v>107</v>
       </c>
       <c r="F22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -1432,16 +1409,16 @@
         <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D23" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F23" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -1455,7 +1432,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -1463,7 +1440,7 @@
         <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D26" t="s">
         <v>58</v>
@@ -1472,7 +1449,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -1480,7 +1457,7 @@
         <v>47</v>
       </c>
       <c r="C27" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D27" t="s">
         <v>60</v>
@@ -1488,11 +1465,8 @@
       <c r="F27" t="s">
         <v>28</v>
       </c>
-      <c r="G27" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -1500,7 +1474,7 @@
         <v>13</v>
       </c>
       <c r="C28" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D28" t="s">
         <v>32</v>
@@ -1509,7 +1483,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -1523,7 +1497,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -1531,7 +1505,7 @@
         <v>44</v>
       </c>
       <c r="C30" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D30" t="s">
         <v>79</v>
@@ -1539,11 +1513,8 @@
       <c r="F30" t="s">
         <v>66</v>
       </c>
-      <c r="G30" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -1551,7 +1522,7 @@
         <v>14</v>
       </c>
       <c r="C31" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D31" t="s">
         <v>81</v>
@@ -1559,11 +1530,8 @@
       <c r="F31" t="s">
         <v>76</v>
       </c>
-      <c r="G31" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -1571,7 +1539,7 @@
         <v>67</v>
       </c>
       <c r="C32" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D32" t="s">
         <v>64</v>
@@ -1579,31 +1547,25 @@
       <c r="F32" t="s">
         <v>42</v>
       </c>
-      <c r="G32" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C33" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D33" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F33" t="s">
-        <v>94</v>
-      </c>
-      <c r="G33" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -1611,7 +1573,7 @@
         <v>63</v>
       </c>
       <c r="C34" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D34" t="s">
         <v>65</v>
@@ -1619,62 +1581,59 @@
       <c r="F34" t="s">
         <v>41</v>
       </c>
-      <c r="G34" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>10</v>
       </c>
       <c r="B35" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C35" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D35" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F35" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>10</v>
       </c>
       <c r="B36" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C36" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D36" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F36" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>10</v>
       </c>
       <c r="B37" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C37" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D37" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F37" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>10</v>
       </c>
@@ -1682,7 +1641,7 @@
         <v>15</v>
       </c>
       <c r="C39" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D39" t="s">
         <v>61</v>
@@ -1691,7 +1650,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>10</v>
       </c>
@@ -1699,16 +1658,16 @@
         <v>16</v>
       </c>
       <c r="C40" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D40" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F40" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -1716,7 +1675,7 @@
         <v>17</v>
       </c>
       <c r="C41" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D41" t="s">
         <v>62</v>
@@ -1725,20 +1684,20 @@
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>80</v>
       </c>
       <c r="D43" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
         <v>80</v>
       </c>
       <c r="D45" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
